--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Ccr2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.573058624100537</v>
+        <v>0.687091</v>
       </c>
       <c r="H2">
-        <v>0.573058624100537</v>
+        <v>1.374182</v>
       </c>
       <c r="I2">
-        <v>0.005618040064215539</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J2">
-        <v>0.005618040064215539</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0502182348554785</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N2">
-        <v>0.0502182348554785</v>
+        <v>0.165998</v>
       </c>
       <c r="O2">
-        <v>0.0002089872941897447</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P2">
-        <v>0.0002089872941897447</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q2">
-        <v>0.02877799257103814</v>
+        <v>0.05702786590899999</v>
       </c>
       <c r="R2">
-        <v>0.02877799257103814</v>
+        <v>0.228111463636</v>
       </c>
       <c r="S2">
-        <v>1.174098991669985E-06</v>
+        <v>1.613587181912367E-06</v>
       </c>
       <c r="T2">
-        <v>1.174098991669985E-06</v>
+        <v>7.311493795525979E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.573058624100537</v>
+        <v>0.687091</v>
       </c>
       <c r="H3">
-        <v>0.573058624100537</v>
+        <v>1.374182</v>
       </c>
       <c r="I3">
-        <v>0.005618040064215539</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J3">
-        <v>0.005618040064215539</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>107.381304101442</v>
+        <v>0.03385166666666667</v>
       </c>
       <c r="N3">
-        <v>107.381304101442</v>
+        <v>0.101555</v>
       </c>
       <c r="O3">
-        <v>0.4468760850577424</v>
+        <v>0.0001077239027980797</v>
       </c>
       <c r="P3">
-        <v>0.4468760850577424</v>
+        <v>0.000107736595531177</v>
       </c>
       <c r="Q3">
-        <v>61.5357823824937</v>
+        <v>0.02325917550166667</v>
       </c>
       <c r="R3">
-        <v>61.5357823824937</v>
+        <v>0.13955505301</v>
       </c>
       <c r="S3">
-        <v>0.002510567749594188</v>
+        <v>6.581117292943708E-07</v>
       </c>
       <c r="T3">
-        <v>0.002510567749594188</v>
+        <v>4.473058424828257E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.573058624100537</v>
+        <v>0.687091</v>
       </c>
       <c r="H4">
-        <v>0.573058624100537</v>
+        <v>1.374182</v>
       </c>
       <c r="I4">
-        <v>0.005618040064215539</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J4">
-        <v>0.005618040064215539</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.71044520441</v>
+        <v>136.0989836666667</v>
       </c>
       <c r="N4">
-        <v>132.71044520441</v>
+        <v>408.296951</v>
       </c>
       <c r="O4">
-        <v>0.5522853786837219</v>
+        <v>0.4330987254421377</v>
       </c>
       <c r="P4">
-        <v>0.5522853786837219</v>
+        <v>0.4331497559598229</v>
       </c>
       <c r="Q4">
-        <v>76.05086513260891</v>
+        <v>93.51238678651367</v>
       </c>
       <c r="R4">
-        <v>76.05086513260891</v>
+        <v>561.074320719082</v>
       </c>
       <c r="S4">
-        <v>0.0031027613843256</v>
+        <v>0.00264590628219417</v>
       </c>
       <c r="T4">
-        <v>0.0031027613843256</v>
+        <v>0.001798371440600896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.573058624100537</v>
+        <v>0.687091</v>
       </c>
       <c r="H5">
-        <v>0.573058624100537</v>
+        <v>1.374182</v>
       </c>
       <c r="I5">
-        <v>0.005618040064215539</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J5">
-        <v>0.005618040064215539</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.151276362838835</v>
+        <v>177.6775513333333</v>
       </c>
       <c r="N5">
-        <v>0.151276362838835</v>
+        <v>533.032654</v>
       </c>
       <c r="O5">
-        <v>0.0006295489643460692</v>
+        <v>0.5654114303352707</v>
       </c>
       <c r="P5">
-        <v>0.0006295489643460692</v>
+        <v>0.5654780507991515</v>
       </c>
       <c r="Q5">
-        <v>0.08669022434735639</v>
+        <v>122.0806464231713</v>
       </c>
       <c r="R5">
-        <v>0.08669022434735639</v>
+        <v>732.483878539028</v>
       </c>
       <c r="S5">
-        <v>3.536831304081617E-06</v>
+        <v>0.00345423703110933</v>
       </c>
       <c r="T5">
-        <v>3.536831304081617E-06</v>
+        <v>0.002347778251866737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.9333797278603</v>
+        <v>0.687091</v>
       </c>
       <c r="H6">
-        <v>92.9333797278603</v>
+        <v>1.374182</v>
       </c>
       <c r="I6">
-        <v>0.911082092924716</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J6">
-        <v>0.911082092924716</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0502182348554785</v>
+        <v>0.323258</v>
       </c>
       <c r="N6">
-        <v>0.0502182348554785</v>
+        <v>0.9697739999999999</v>
       </c>
       <c r="O6">
-        <v>0.0002089872941897447</v>
+        <v>0.001028682389957214</v>
       </c>
       <c r="P6">
-        <v>0.0002089872941897447</v>
+        <v>0.001028803596028277</v>
       </c>
       <c r="Q6">
-        <v>4.666950289087053</v>
+        <v>0.222107662478</v>
       </c>
       <c r="R6">
-        <v>4.666950289087053</v>
+        <v>1.332645974868</v>
       </c>
       <c r="S6">
-        <v>0.0001904045813850659</v>
+        <v>6.284472888235134E-06</v>
       </c>
       <c r="T6">
-        <v>0.0001904045813850659</v>
+        <v>4.271434947446602E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.9333797278603</v>
+        <v>0.687091</v>
       </c>
       <c r="H7">
-        <v>92.9333797278603</v>
+        <v>1.374182</v>
       </c>
       <c r="I7">
-        <v>0.911082092924716</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J7">
-        <v>0.911082092924716</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>107.381304101442</v>
+        <v>0.028067</v>
       </c>
       <c r="N7">
-        <v>107.381304101442</v>
+        <v>0.056134</v>
       </c>
       <c r="O7">
-        <v>0.4468760850577424</v>
+        <v>8.93157435823062E-05</v>
       </c>
       <c r="P7">
-        <v>0.4468760850577424</v>
+        <v>5.955084489731763E-05</v>
       </c>
       <c r="Q7">
-        <v>9979.307509732153</v>
+        <v>0.019284583097</v>
       </c>
       <c r="R7">
-        <v>9979.307509732153</v>
+        <v>0.07713833238800001</v>
       </c>
       <c r="S7">
-        <v>0.4071407988524113</v>
+        <v>5.456517721265847E-07</v>
       </c>
       <c r="T7">
-        <v>0.4071407988524113</v>
+        <v>2.472459865287867E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.9333797278603</v>
+        <v>101.337382</v>
       </c>
       <c r="H8">
-        <v>92.9333797278603</v>
+        <v>304.012146</v>
       </c>
       <c r="I8">
-        <v>0.911082092924716</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J8">
-        <v>0.911082092924716</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>132.71044520441</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N8">
-        <v>132.71044520441</v>
+        <v>0.165998</v>
       </c>
       <c r="O8">
-        <v>0.5522853786837219</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P8">
-        <v>0.5522853786837219</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q8">
-        <v>12333.23019803483</v>
+        <v>8.410901368617999</v>
       </c>
       <c r="R8">
-        <v>12333.23019803483</v>
+        <v>50.465408211708</v>
       </c>
       <c r="S8">
-        <v>0.5031773187028846</v>
+        <v>0.000237984052539994</v>
       </c>
       <c r="T8">
-        <v>0.5031773187028846</v>
+        <v>0.0001617531680114816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,805 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.9333797278603</v>
+        <v>101.337382</v>
       </c>
       <c r="H9">
-        <v>92.9333797278603</v>
+        <v>304.012146</v>
       </c>
       <c r="I9">
-        <v>0.911082092924716</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J9">
-        <v>0.911082092924716</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.151276362838835</v>
+        <v>0.03385166666666667</v>
       </c>
       <c r="N9">
-        <v>0.151276362838835</v>
+        <v>0.101555</v>
       </c>
       <c r="O9">
-        <v>0.0006295489643460692</v>
+        <v>0.0001077239027980797</v>
       </c>
       <c r="P9">
-        <v>0.0006295489643460692</v>
+        <v>0.000107736595531177</v>
       </c>
       <c r="Q9">
-        <v>14.05862367155103</v>
+        <v>3.430439276336667</v>
       </c>
       <c r="R9">
-        <v>14.05862367155103</v>
+        <v>30.87395348703</v>
       </c>
       <c r="S9">
-        <v>0.0005735707880350041</v>
+        <v>9.706329978151984E-05</v>
       </c>
       <c r="T9">
-        <v>0.0005735707880350041</v>
+        <v>9.895807767205642E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.29352852446951</v>
+        <v>101.337382</v>
       </c>
       <c r="H10">
-        <v>1.29352852446951</v>
+        <v>304.012146</v>
       </c>
       <c r="I10">
-        <v>0.01268124196905967</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J10">
-        <v>0.01268124196905967</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0502182348554785</v>
+        <v>136.0989836666667</v>
       </c>
       <c r="N10">
-        <v>0.0502182348554785</v>
+        <v>408.296951</v>
       </c>
       <c r="O10">
-        <v>0.0002089872941897447</v>
+        <v>0.4330987254421377</v>
       </c>
       <c r="P10">
-        <v>0.0002089872941897447</v>
+        <v>0.4331497559598229</v>
       </c>
       <c r="Q10">
-        <v>0.06495871923407043</v>
+        <v>13791.91469764076</v>
       </c>
       <c r="R10">
-        <v>0.06495871923407043</v>
+        <v>124127.2322787669</v>
       </c>
       <c r="S10">
-        <v>2.65021844607921E-06</v>
+        <v>0.3902382881669392</v>
       </c>
       <c r="T10">
-        <v>2.65021844607921E-06</v>
+        <v>0.397856150758917</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.29352852446951</v>
+        <v>101.337382</v>
       </c>
       <c r="H11">
-        <v>1.29352852446951</v>
+        <v>304.012146</v>
       </c>
       <c r="I11">
-        <v>0.01268124196905967</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J11">
-        <v>0.01268124196905967</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>107.381304101442</v>
+        <v>177.6775513333333</v>
       </c>
       <c r="N11">
-        <v>107.381304101442</v>
+        <v>533.032654</v>
       </c>
       <c r="O11">
-        <v>0.4468760850577424</v>
+        <v>0.5654114303352707</v>
       </c>
       <c r="P11">
-        <v>0.4468760850577424</v>
+        <v>0.5654780507991515</v>
       </c>
       <c r="Q11">
-        <v>138.90077984995</v>
+        <v>18005.37789229061</v>
       </c>
       <c r="R11">
-        <v>138.90077984995</v>
+        <v>162048.4010306155</v>
       </c>
       <c r="S11">
-        <v>0.005666943764803321</v>
+        <v>0.5094570261291037</v>
       </c>
       <c r="T11">
-        <v>0.005666943764803321</v>
+        <v>0.5194021641108204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.29352852446951</v>
+        <v>101.337382</v>
       </c>
       <c r="H12">
-        <v>1.29352852446951</v>
+        <v>304.012146</v>
       </c>
       <c r="I12">
-        <v>0.01268124196905967</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J12">
-        <v>0.01268124196905967</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>132.71044520441</v>
+        <v>0.323258</v>
       </c>
       <c r="N12">
-        <v>132.71044520441</v>
+        <v>0.9697739999999999</v>
       </c>
       <c r="O12">
-        <v>0.5522853786837219</v>
+        <v>0.001028682389957214</v>
       </c>
       <c r="P12">
-        <v>0.5522853786837219</v>
+        <v>0.001028803596028277</v>
       </c>
       <c r="Q12">
-        <v>171.6647463669522</v>
+        <v>32.758119430556</v>
       </c>
       <c r="R12">
-        <v>171.6647463669522</v>
+        <v>294.823074875004</v>
       </c>
       <c r="S12">
-        <v>0.007003664523062026</v>
+        <v>0.0009268816353928768</v>
       </c>
       <c r="T12">
-        <v>0.007003664523062026</v>
+        <v>0.0009449753416015048</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.29352852446951</v>
+        <v>101.337382</v>
       </c>
       <c r="H13">
-        <v>1.29352852446951</v>
+        <v>304.012146</v>
       </c>
       <c r="I13">
-        <v>0.01268124196905967</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J13">
-        <v>0.01268124196905967</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.151276362838835</v>
+        <v>0.028067</v>
       </c>
       <c r="N13">
-        <v>0.151276362838835</v>
+        <v>0.056134</v>
       </c>
       <c r="O13">
-        <v>0.0006295489643460692</v>
+        <v>8.93157435823062E-05</v>
       </c>
       <c r="P13">
-        <v>0.0006295489643460692</v>
+        <v>5.955084489731763E-05</v>
       </c>
       <c r="Q13">
-        <v>0.1956802904100325</v>
+        <v>2.844236300594</v>
       </c>
       <c r="R13">
-        <v>0.1956802904100325</v>
+        <v>17.065417803564</v>
       </c>
       <c r="S13">
-        <v>7.983462748243422E-06</v>
+        <v>8.047685396980701E-05</v>
       </c>
       <c r="T13">
-        <v>7.983462748243422E-06</v>
+        <v>5.469856464027586E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.66333286412594</v>
+        <v>1.502495333333333</v>
       </c>
       <c r="H14">
-        <v>1.66333286412594</v>
+        <v>4.507486</v>
       </c>
       <c r="I14">
-        <v>0.01630665743047345</v>
+        <v>0.01335938370367848</v>
       </c>
       <c r="J14">
-        <v>0.01630665743047345</v>
+        <v>0.0136185683222204</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0502182348554785</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N14">
-        <v>0.0502182348554785</v>
+        <v>0.165998</v>
       </c>
       <c r="O14">
-        <v>0.0002089872941897447</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P14">
-        <v>0.0002089872941897447</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q14">
-        <v>0.08352964041351216</v>
+        <v>0.1247056101713333</v>
       </c>
       <c r="R14">
-        <v>0.08352964041351216</v>
+        <v>0.7482336610279999</v>
       </c>
       <c r="S14">
-        <v>3.40788421367374E-06</v>
+        <v>3.528509630820103E-06</v>
       </c>
       <c r="T14">
-        <v>3.40788421367374E-06</v>
+        <v>2.398259904613815E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.66333286412594</v>
+        <v>1.502495333333333</v>
       </c>
       <c r="H15">
-        <v>1.66333286412594</v>
+        <v>4.507486</v>
       </c>
       <c r="I15">
-        <v>0.01630665743047345</v>
+        <v>0.01335938370367848</v>
       </c>
       <c r="J15">
-        <v>0.01630665743047345</v>
+        <v>0.0136185683222204</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>107.381304101442</v>
+        <v>0.03385166666666667</v>
       </c>
       <c r="N15">
-        <v>107.381304101442</v>
+        <v>0.101555</v>
       </c>
       <c r="O15">
-        <v>0.4468760850577424</v>
+        <v>0.0001077239027980797</v>
       </c>
       <c r="P15">
-        <v>0.4468760850577424</v>
+        <v>0.000107736595531177</v>
       </c>
       <c r="Q15">
-        <v>178.6108521046301</v>
+        <v>0.05086197119222222</v>
       </c>
       <c r="R15">
-        <v>178.6108521046301</v>
+        <v>0.45775774073</v>
       </c>
       <c r="S15">
-        <v>0.00728705523290772</v>
+        <v>1.43912495153731E-06</v>
       </c>
       <c r="T15">
-        <v>0.00728705523290772</v>
+        <v>1.46721818704476E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.66333286412594</v>
+        <v>1.502495333333333</v>
       </c>
       <c r="H16">
-        <v>1.66333286412594</v>
+        <v>4.507486</v>
       </c>
       <c r="I16">
-        <v>0.01630665743047345</v>
+        <v>0.01335938370367848</v>
       </c>
       <c r="J16">
-        <v>0.01630665743047345</v>
+        <v>0.0136185683222204</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.71044520441</v>
+        <v>136.0989836666667</v>
       </c>
       <c r="N16">
-        <v>132.71044520441</v>
+        <v>408.296951</v>
       </c>
       <c r="O16">
-        <v>0.5522853786837219</v>
+        <v>0.4330987254421377</v>
       </c>
       <c r="P16">
-        <v>0.5522853786837219</v>
+        <v>0.4331497559598229</v>
       </c>
       <c r="Q16">
-        <v>220.7416449212799</v>
+        <v>204.4880878305762</v>
       </c>
       <c r="R16">
-        <v>220.7416449212799</v>
+        <v>1840.392790475186</v>
       </c>
       <c r="S16">
-        <v>0.009005928474054755</v>
+        <v>0.005785932054755616</v>
       </c>
       <c r="T16">
-        <v>0.009005928474054755</v>
+        <v>0.005898879545291942</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.66333286412594</v>
+        <v>1.502495333333333</v>
       </c>
       <c r="H17">
-        <v>1.66333286412594</v>
+        <v>4.507486</v>
       </c>
       <c r="I17">
-        <v>0.01630665743047345</v>
+        <v>0.01335938370367848</v>
       </c>
       <c r="J17">
-        <v>0.01630665743047345</v>
+        <v>0.0136185683222204</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.151276362838835</v>
+        <v>177.6775513333333</v>
       </c>
       <c r="N17">
-        <v>0.151276362838835</v>
+        <v>533.032654</v>
       </c>
       <c r="O17">
-        <v>0.0006295489643460692</v>
+        <v>0.5654114303352707</v>
       </c>
       <c r="P17">
-        <v>0.0006295489643460692</v>
+        <v>0.5654780507991515</v>
       </c>
       <c r="Q17">
-        <v>0.2516229458752743</v>
+        <v>266.9596917164271</v>
       </c>
       <c r="R17">
-        <v>0.2516229458752743</v>
+        <v>2402.637225447844</v>
       </c>
       <c r="S17">
-        <v>1.026583929730069E-05</v>
+        <v>0.007553548248294557</v>
       </c>
       <c r="T17">
-        <v>1.026583929730069E-05</v>
+        <v>0.007701001469524264</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.53999990671218</v>
+        <v>1.502495333333333</v>
       </c>
       <c r="H18">
-        <v>5.53999990671218</v>
+        <v>4.507486</v>
       </c>
       <c r="I18">
-        <v>0.05431196761153535</v>
+        <v>0.01335938370367848</v>
       </c>
       <c r="J18">
-        <v>0.05431196761153535</v>
+        <v>0.0136185683222204</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0502182348554785</v>
+        <v>0.323258</v>
       </c>
       <c r="N18">
-        <v>0.0502182348554785</v>
+        <v>0.9697739999999999</v>
       </c>
       <c r="O18">
-        <v>0.0002089872941897447</v>
+        <v>0.001028682389957214</v>
       </c>
       <c r="P18">
-        <v>0.0002089872941897447</v>
+        <v>0.001028803596028277</v>
       </c>
       <c r="Q18">
-        <v>0.2782090164146012</v>
+        <v>0.4856936364626666</v>
       </c>
       <c r="R18">
-        <v>0.2782090164146012</v>
+        <v>4.371242728164</v>
       </c>
       <c r="S18">
-        <v>1.135051115325582E-05</v>
+        <v>1.374256275665544E-05</v>
       </c>
       <c r="T18">
-        <v>1.135051115325582E-05</v>
+        <v>1.401083206265713E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.53999990671218</v>
+        <v>1.502495333333333</v>
       </c>
       <c r="H19">
-        <v>5.53999990671218</v>
+        <v>4.507486</v>
       </c>
       <c r="I19">
-        <v>0.05431196761153535</v>
+        <v>0.01335938370367848</v>
       </c>
       <c r="J19">
-        <v>0.05431196761153535</v>
+        <v>0.0136185683222204</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>107.381304101442</v>
+        <v>0.028067</v>
       </c>
       <c r="N19">
-        <v>107.381304101442</v>
+        <v>0.056134</v>
       </c>
       <c r="O19">
-        <v>0.4468760850577424</v>
+        <v>8.93157435823062E-05</v>
       </c>
       <c r="P19">
-        <v>0.4468760850577424</v>
+        <v>5.955084489731763E-05</v>
       </c>
       <c r="Q19">
-        <v>594.8924147046209</v>
+        <v>0.04217053652066667</v>
       </c>
       <c r="R19">
-        <v>594.8924147046209</v>
+        <v>0.253023219124</v>
       </c>
       <c r="S19">
-        <v>0.02427071945802582</v>
+        <v>1.193203289295387E-06</v>
       </c>
       <c r="T19">
-        <v>0.02427071945802582</v>
+        <v>8.109972498800703E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.53999990671218</v>
+        <v>2.023554</v>
       </c>
       <c r="H20">
-        <v>5.53999990671218</v>
+        <v>6.070662</v>
       </c>
       <c r="I20">
-        <v>0.05431196761153535</v>
+        <v>0.01799235826652378</v>
       </c>
       <c r="J20">
-        <v>0.05431196761153535</v>
+        <v>0.01834142695243139</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>132.71044520441</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N20">
-        <v>132.71044520441</v>
+        <v>0.165998</v>
       </c>
       <c r="O20">
-        <v>0.5522853786837219</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P20">
-        <v>0.5522853786837219</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q20">
-        <v>735.2158540521633</v>
+        <v>0.167952958446</v>
       </c>
       <c r="R20">
-        <v>735.2158540521633</v>
+        <v>1.007717750676</v>
       </c>
       <c r="S20">
-        <v>0.02999570559939484</v>
+        <v>4.752181001217448E-06</v>
       </c>
       <c r="T20">
-        <v>0.02999570559939484</v>
+        <v>3.229965721260745E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.023554</v>
+      </c>
+      <c r="H21">
+        <v>6.070662</v>
+      </c>
+      <c r="I21">
+        <v>0.01799235826652378</v>
+      </c>
+      <c r="J21">
+        <v>0.01834142695243139</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.03385166666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.101555</v>
+      </c>
+      <c r="O21">
+        <v>0.0001077239027980797</v>
+      </c>
+      <c r="P21">
+        <v>0.000107736595531177</v>
+      </c>
+      <c r="Q21">
+        <v>0.06850067549</v>
+      </c>
+      <c r="R21">
+        <v>0.61650607941</v>
+      </c>
+      <c r="S21">
+        <v>1.938207053011233E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.97604289703873E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.023554</v>
+      </c>
+      <c r="H22">
+        <v>6.070662</v>
+      </c>
+      <c r="I22">
+        <v>0.01799235826652378</v>
+      </c>
+      <c r="J22">
+        <v>0.01834142695243139</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>136.0989836666667</v>
+      </c>
+      <c r="N22">
+        <v>408.296951</v>
+      </c>
+      <c r="O22">
+        <v>0.4330987254421377</v>
+      </c>
+      <c r="P22">
+        <v>0.4331497559598229</v>
+      </c>
+      <c r="Q22">
+        <v>275.403642794618</v>
+      </c>
+      <c r="R22">
+        <v>2478.632785151562</v>
+      </c>
+      <c r="S22">
+        <v>0.007792467432929761</v>
+      </c>
+      <c r="T22">
+        <v>0.007944584608400574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.023554</v>
+      </c>
+      <c r="H23">
+        <v>6.070662</v>
+      </c>
+      <c r="I23">
+        <v>0.01799235826652378</v>
+      </c>
+      <c r="J23">
+        <v>0.01834142695243139</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>177.6775513333333</v>
+      </c>
+      <c r="N23">
+        <v>533.032654</v>
+      </c>
+      <c r="O23">
+        <v>0.5654114303352707</v>
+      </c>
+      <c r="P23">
+        <v>0.5654780507991515</v>
+      </c>
+      <c r="Q23">
+        <v>359.5401197107719</v>
+      </c>
+      <c r="R23">
+        <v>3235.861077396948</v>
+      </c>
+      <c r="S23">
+        <v>0.01017308502257984</v>
+      </c>
+      <c r="T23">
+        <v>0.01037167436193592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.023554</v>
+      </c>
+      <c r="H24">
+        <v>6.070662</v>
+      </c>
+      <c r="I24">
+        <v>0.01799235826652378</v>
+      </c>
+      <c r="J24">
+        <v>0.01834142695243139</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.323258</v>
+      </c>
+      <c r="N24">
+        <v>0.9697739999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.001028682389957214</v>
+      </c>
+      <c r="P24">
+        <v>0.001028803596028277</v>
+      </c>
+      <c r="Q24">
+        <v>0.654130018932</v>
+      </c>
+      <c r="R24">
+        <v>5.887170170387999</v>
+      </c>
+      <c r="S24">
+        <v>1.850842210257413E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.886972600495137E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.53999990671218</v>
-      </c>
-      <c r="H21">
-        <v>5.53999990671218</v>
-      </c>
-      <c r="I21">
-        <v>0.05431196761153535</v>
-      </c>
-      <c r="J21">
-        <v>0.05431196761153535</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.151276362838835</v>
-      </c>
-      <c r="N21">
-        <v>0.151276362838835</v>
-      </c>
-      <c r="O21">
-        <v>0.0006295489643460692</v>
-      </c>
-      <c r="P21">
-        <v>0.0006295489643460692</v>
-      </c>
-      <c r="Q21">
-        <v>0.8380710360149037</v>
-      </c>
-      <c r="R21">
-        <v>0.8380710360149037</v>
-      </c>
-      <c r="S21">
-        <v>3.419204296143934E-05</v>
-      </c>
-      <c r="T21">
-        <v>3.419204296143934E-05</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.023554</v>
+      </c>
+      <c r="H25">
+        <v>6.070662</v>
+      </c>
+      <c r="I25">
+        <v>0.01799235826652378</v>
+      </c>
+      <c r="J25">
+        <v>0.01834142695243139</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.028067</v>
+      </c>
+      <c r="N25">
+        <v>0.056134</v>
+      </c>
+      <c r="O25">
+        <v>8.93157435823062E-05</v>
+      </c>
+      <c r="P25">
+        <v>5.955084489731763E-05</v>
+      </c>
+      <c r="Q25">
+        <v>0.056795090118</v>
+      </c>
+      <c r="R25">
+        <v>0.340770540708</v>
+      </c>
+      <c r="S25">
+        <v>1.607000857373825E-06</v>
+      </c>
+      <c r="T25">
+        <v>1.092247471639723E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.547924</v>
+      </c>
+      <c r="I26">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J26">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.08299899999999999</v>
+      </c>
+      <c r="N26">
+        <v>0.165998</v>
+      </c>
+      <c r="O26">
+        <v>0.0002641221862538864</v>
+      </c>
+      <c r="P26">
+        <v>0.0001761022045687984</v>
+      </c>
+      <c r="Q26">
+        <v>0.09815804802533333</v>
+      </c>
+      <c r="R26">
+        <v>0.588948288152</v>
+      </c>
+      <c r="S26">
+        <v>2.777353940404426E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.887713877273732E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H27">
+        <v>3.547924</v>
+      </c>
+      <c r="I27">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J27">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.03385166666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.101555</v>
+      </c>
+      <c r="O27">
+        <v>0.0001077239027980797</v>
+      </c>
+      <c r="P27">
+        <v>0.000107736595531177</v>
+      </c>
+      <c r="Q27">
+        <v>0.04003438020222223</v>
+      </c>
+      <c r="R27">
+        <v>0.36030942182</v>
+      </c>
+      <c r="S27">
+        <v>1.13276135623229E-06</v>
+      </c>
+      <c r="T27">
+        <v>1.154874051533958E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H28">
+        <v>3.547924</v>
+      </c>
+      <c r="I28">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J28">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>136.0989836666667</v>
+      </c>
+      <c r="N28">
+        <v>408.296951</v>
+      </c>
+      <c r="O28">
+        <v>0.4330987254421377</v>
+      </c>
+      <c r="P28">
+        <v>0.4331497559598229</v>
+      </c>
+      <c r="Q28">
+        <v>160.9562835088582</v>
+      </c>
+      <c r="R28">
+        <v>1448.606551579724</v>
+      </c>
+      <c r="S28">
+        <v>0.00455421208173176</v>
+      </c>
+      <c r="T28">
+        <v>0.004643115100490688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H29">
+        <v>3.547924</v>
+      </c>
+      <c r="I29">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J29">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>177.6775513333333</v>
+      </c>
+      <c r="N29">
+        <v>533.032654</v>
+      </c>
+      <c r="O29">
+        <v>0.5654114303352707</v>
+      </c>
+      <c r="P29">
+        <v>0.5654780507991515</v>
+      </c>
+      <c r="Q29">
+        <v>210.1288162122551</v>
+      </c>
+      <c r="R29">
+        <v>1891.159345910296</v>
+      </c>
+      <c r="S29">
+        <v>0.00594553485363731</v>
+      </c>
+      <c r="T29">
+        <v>0.006061597958986541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H30">
+        <v>3.547924</v>
+      </c>
+      <c r="I30">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J30">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.323258</v>
+      </c>
+      <c r="N30">
+        <v>0.9697739999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.001028682389957214</v>
+      </c>
+      <c r="P30">
+        <v>0.001028803596028277</v>
+      </c>
+      <c r="Q30">
+        <v>0.3822982721306667</v>
+      </c>
+      <c r="R30">
+        <v>3.440684449176</v>
+      </c>
+      <c r="S30">
+        <v>1.081702044683977E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.10281800842134E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.547924</v>
+      </c>
+      <c r="I31">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J31">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.028067</v>
+      </c>
+      <c r="N31">
+        <v>0.056134</v>
+      </c>
+      <c r="O31">
+        <v>8.93157435823062E-05</v>
+      </c>
+      <c r="P31">
+        <v>5.955084489731763E-05</v>
+      </c>
+      <c r="Q31">
+        <v>0.03319319430266667</v>
+      </c>
+      <c r="R31">
+        <v>0.199159165816</v>
+      </c>
+      <c r="S31">
+        <v>9.391919546660929E-07</v>
+      </c>
+      <c r="T31">
+        <v>6.383506475191489E-07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H32">
+        <v>11.4685</v>
+      </c>
+      <c r="I32">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J32">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.08299899999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.165998</v>
+      </c>
+      <c r="O32">
+        <v>0.0002641221862538864</v>
+      </c>
+      <c r="P32">
+        <v>0.0001761022045687984</v>
+      </c>
+      <c r="Q32">
+        <v>0.4759370157499999</v>
+      </c>
+      <c r="R32">
+        <v>1.903748063</v>
+      </c>
+      <c r="S32">
+        <v>1.346650195953809E-05</v>
+      </c>
+      <c r="T32">
+        <v>6.101947674615858E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H33">
+        <v>11.4685</v>
+      </c>
+      <c r="I33">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J33">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.03385166666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.101555</v>
+      </c>
+      <c r="O33">
+        <v>0.0001077239027980797</v>
+      </c>
+      <c r="P33">
+        <v>0.000107736595531177</v>
+      </c>
+      <c r="Q33">
+        <v>0.1941139195833333</v>
+      </c>
+      <c r="R33">
+        <v>1.1646835175</v>
+      </c>
+      <c r="S33">
+        <v>5.492397926484623E-06</v>
+      </c>
+      <c r="T33">
+        <v>3.733076881020335E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H34">
+        <v>11.4685</v>
+      </c>
+      <c r="I34">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J34">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>136.0989836666667</v>
+      </c>
+      <c r="N34">
+        <v>408.296951</v>
+      </c>
+      <c r="O34">
+        <v>0.4330987254421377</v>
+      </c>
+      <c r="P34">
+        <v>0.4331497559598229</v>
+      </c>
+      <c r="Q34">
+        <v>780.4255970905832</v>
+      </c>
+      <c r="R34">
+        <v>4682.5535825435</v>
+      </c>
+      <c r="S34">
+        <v>0.02208191942358715</v>
+      </c>
+      <c r="T34">
+        <v>0.01500865450612173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H35">
+        <v>11.4685</v>
+      </c>
+      <c r="I35">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J35">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>177.6775513333333</v>
+      </c>
+      <c r="N35">
+        <v>533.032654</v>
+      </c>
+      <c r="O35">
+        <v>0.5654114303352707</v>
+      </c>
+      <c r="P35">
+        <v>0.5654780507991515</v>
+      </c>
+      <c r="Q35">
+        <v>1018.847498733167</v>
+      </c>
+      <c r="R35">
+        <v>6113.084992398999</v>
+      </c>
+      <c r="S35">
+        <v>0.02882799905054596</v>
+      </c>
+      <c r="T35">
+        <v>0.01959383464601754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H36">
+        <v>11.4685</v>
+      </c>
+      <c r="I36">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J36">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.323258</v>
+      </c>
+      <c r="N36">
+        <v>0.9697739999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.001028682389957214</v>
+      </c>
+      <c r="P36">
+        <v>0.001028803596028277</v>
+      </c>
+      <c r="Q36">
+        <v>1.8536421865</v>
+      </c>
+      <c r="R36">
+        <v>11.121853119</v>
+      </c>
+      <c r="S36">
+        <v>5.244827637003295E-05</v>
+      </c>
+      <c r="T36">
+        <v>3.564808132750346E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H37">
+        <v>11.4685</v>
+      </c>
+      <c r="I37">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J37">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.028067</v>
+      </c>
+      <c r="N37">
+        <v>0.056134</v>
+      </c>
+      <c r="O37">
+        <v>8.93157435823062E-05</v>
+      </c>
+      <c r="P37">
+        <v>5.955084489731763E-05</v>
+      </c>
+      <c r="Q37">
+        <v>0.16094319475</v>
+      </c>
+      <c r="R37">
+        <v>0.643772779</v>
+      </c>
+      <c r="S37">
+        <v>4.553841739037287E-06</v>
+      </c>
+      <c r="T37">
+        <v>2.063438901474034E-06</v>
       </c>
     </row>
   </sheetData>
